--- a/Aufgabe_5/Data/Ergebnisse_Eisverkauf_Prognose.xlsx
+++ b/Aufgabe_5/Data/Ergebnisse_Eisverkauf_Prognose.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>7.79</v>
+        <v>7.99</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.79</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.29</v>
+        <v>4.43</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.79</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.95</v>
+        <v>-0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.83</v>
       </c>
       <c r="E5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>14.47</v>
+        <v>14.63</v>
       </c>
       <c r="E6" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>10.98</v>
+        <v>11.06</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.98</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3.98</v>
+        <v>3.94</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.98</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.01</v>
+        <v>-3.19</v>
       </c>
       <c r="E9" t="n">
-        <v>3.51</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>21.16</v>
+        <v>21.26</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.16</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>17.66</v>
+        <v>17.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>12.42</v>
+        <v>12.35</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.42</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>3.5</v>
       </c>
       <c r="D13" t="n">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>26.17</v>
+        <v>26.24</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.17</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>13.93</v>
+        <v>13.77</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.93</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>8.69</v>
+        <v>8.42</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.69</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>26.1</v>
+        <v>26.12</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>22.6</v>
+        <v>22.56</v>
       </c>
       <c r="E19" t="n">
-        <v>6.4</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>19.1</v>
+        <v>18.99</v>
       </c>
       <c r="E20" t="n">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>13.86</v>
+        <v>13.65</v>
       </c>
       <c r="E21" t="n">
-        <v>6.14</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>31.19</v>
+        <v>31.22</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>20.69</v>
+        <v>20.53</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.69</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="E25" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>34.53</v>
+        <v>34.54</v>
       </c>
       <c r="E26" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>32.78</v>
+        <v>32.76</v>
       </c>
       <c r="E27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>31.03</v>
+        <v>30.97</v>
       </c>
       <c r="E28" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>25.79</v>
+        <v>25.63</v>
       </c>
       <c r="E29" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>17.04</v>
+        <v>16.72</v>
       </c>
       <c r="E30" t="n">
-        <v>-3.04</v>
+        <v>-2.72</v>
       </c>
     </row>
   </sheetData>
